--- a/StructureDefinition-profile-MedicationDispense.xlsx
+++ b/StructureDefinition-profile-MedicationDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7315891-06:00</t>
+    <t>2026-02-09T22:05:43.198731-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,33 +425,118 @@
     <t>MedicationDispense.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension:statusChanged</t>
+  </si>
+  <si>
+    <t>statusChanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.statusChanged|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationDispense.statusChanged from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date (and maybe time) when the status of the dispense record changed.</t>
+  </si>
+  <si>
+    <t>Element `MedicationDispense.statusChanged` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension:recorded</t>
+  </si>
+  <si>
+    <t>recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.recorded|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationDispense.recorded from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date (and maybe time) when the dispense activity started if whenPrepared or whenHandedOver is not populated.</t>
+  </si>
+  <si>
+    <t>Element `MedicationDispense.recorded` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension:renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t>renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.renderedDosageInstruction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationDispense.renderedDosageInstruction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The full representation of the dose of the medication included in all dosage instructions.  To be used when multiple dosage instructions are included to represent complex dosing such as increasing or tapering doses.</t>
+  </si>
+  <si>
+    <t>Element `MedicationDispense.renderedDosageInstruction` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationDispense.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationDispense.basedOn` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+  </si>
+  <si>
+    <t>MedicationDispense.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationDispense.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +544,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -534,36 +622,26 @@
     <t>MedicationDispense.partOf.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.partOf|0.0.1-snapshot-3}
-</t>
+    <t>MedicationDispense.partOf.extension:partOf</t>
+  </si>
+  <si>
+    <t>partOf</t>
   </si>
   <si>
     <t>Cross-version extension for MedicationDispense.partOf from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The procedure or medication administration that triggered the dispense.</t>
-  </si>
-  <si>
-    <t>While both a procedure and a medication administration may have triggered the dispense, but it is not expected that multiple procedures and/or multiple medication administrations would be triggers.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationAdministration in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationDispense.partOf` is mapped to FHIR R4 element `MedicationDispense.partOf`.</t>
   </si>
   <si>
     <t>MedicationDispense.partOf.reference</t>
@@ -860,6 +938,9 @@
     <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -926,11 +1007,20 @@
     <t>MedicationDispense.performer.actor.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.performer.actor|0.0.1-snapshot-3}
-</t>
+    <t>MedicationDispense.performer.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
   </si>
   <si>
     <t>Cross-version extension for MedicationDispense.performer.actor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationDispense.performer.actor` is mapped to FHIR R4 element `MedicationDispense.performer.actor`.</t>
   </si>
   <si>
     <t>MedicationDispense.performer.actor.reference</t>
@@ -1130,14 +1220,20 @@
     <t>MedicationDispense.receiver.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.receiver|0.0.1-snapshot-3}
-</t>
+    <t>MedicationDispense.receiver.extension:receiver</t>
+  </si>
+  <si>
+    <t>receiver</t>
   </si>
   <si>
     <t>Cross-version extension for MedicationDispense.receiver from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Identifies the person who picked up the medication or the location of where the medication was delivered.  This will usually be a patient or their caregiver, but some cases exist where it can be a healthcare professional or a location.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.receiver` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationDispense.receiver` is mapped to FHIR R4 element `MedicationDispense.receiver`.</t>
   </si>
   <si>
     <t>MedicationDispense.receiver.reference</t>
@@ -1301,11 +1397,20 @@
     <t>MedicationDispense.substitution.responsibleParty.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.substitution.responsibleParty|0.0.1-snapshot-3}
-</t>
+    <t>MedicationDispense.substitution.responsibleParty.extension:responsibleParty</t>
+  </si>
+  <si>
+    <t>responsibleParty</t>
   </si>
   <si>
     <t>Cross-version extension for MedicationDispense.substitution.responsibleParty from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.substitution.responsibleParty` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationDispense.substitution.responsibleParty` is mapped to FHIR R4 element `MedicationDispense.substitution.responsibleParty`.</t>
   </si>
   <si>
     <t>MedicationDispense.substitution.responsibleParty.reference</t>
@@ -1666,7 +1771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1675,9 +1780,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1685,7 +1790,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="108.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.9921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2666,7 +2771,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2685,17 +2790,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2732,16 +2835,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2762,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2779,43 +2880,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2863,7 +2964,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2872,7 +2973,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2881,7 +2982,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2895,12 +2996,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2909,7 +3012,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2921,16 +3024,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2980,7 +3083,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2989,22 +3092,22 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3012,12 +3115,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3026,7 +3131,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3046,7 +3151,9 @@
       <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3095,7 +3202,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3104,16 +3211,16 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3127,12 +3234,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3141,7 +3250,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3161,7 +3270,9 @@
       <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3210,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3242,18 +3353,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3262,13 +3373,13 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
@@ -3276,8 +3387,12 @@
       <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3313,19 +3428,19 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3343,7 +3458,7 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3357,10 +3472,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3454,19 +3569,19 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3474,10 +3589,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3488,7 +3603,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3497,20 +3612,18 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3565,19 +3678,19 @@
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3591,10 +3704,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3614,20 +3727,18 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3652,13 +3763,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3676,7 +3787,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3688,13 +3799,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3708,10 +3819,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3722,7 +3833,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3731,20 +3842,18 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3781,16 +3890,16 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>195</v>
@@ -3799,19 +3908,19 @@
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3825,12 +3934,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3848,7 +3959,7 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>161</v>
@@ -3910,25 +4021,25 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -3942,10 +4053,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3953,7 +4064,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -3962,22 +4073,22 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4003,13 +4114,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4027,31 +4138,31 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4059,10 +4170,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4082,18 +4193,20 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4118,13 +4231,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4142,7 +4255,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4157,10 +4270,10 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4174,10 +4287,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4197,19 +4310,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4235,13 +4348,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4259,7 +4372,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4277,7 +4390,7 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4291,10 +4404,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4302,7 +4415,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4317,16 +4430,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4352,13 +4465,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4376,10 +4489,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>88</v>
@@ -4391,27 +4504,27 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4419,7 +4532,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4428,22 +4541,22 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4469,13 +4582,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4493,10 +4606,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>88</v>
@@ -4508,27 +4621,27 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4551,13 +4664,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4584,13 +4697,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4608,7 +4721,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4623,10 +4736,10 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4640,10 +4753,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4654,7 +4767,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4666,15 +4779,17 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4699,13 +4814,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4723,13 +4838,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4741,10 +4856,10 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4755,10 +4870,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4766,10 +4881,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4778,18 +4893,20 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4814,13 +4931,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4838,13 +4955,13 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -4853,27 +4970,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4893,18 +5010,20 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4953,7 +5072,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4965,41 +5084,41 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5011,17 +5130,15 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5070,25 +5187,25 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5102,14 +5219,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5122,26 +5239,22 @@
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5189,7 +5302,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5201,16 +5314,16 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5221,10 +5334,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5235,7 +5348,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5247,18 +5360,16 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5282,13 +5393,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5306,13 +5417,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5321,10 +5432,10 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5338,10 +5449,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5349,7 +5460,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5364,13 +5475,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5421,10 +5532,10 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -5433,13 +5544,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5453,21 +5564,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5479,15 +5590,17 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5536,25 +5649,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5568,18 +5681,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5588,22 +5701,26 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5639,19 +5756,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5669,7 +5786,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5683,10 +5800,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5694,7 +5811,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5709,16 +5826,18 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5742,13 +5861,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5766,25 +5885,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5798,10 +5917,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5809,7 +5928,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -5821,20 +5940,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5883,25 +6000,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5915,10 +6032,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5938,20 +6055,18 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5976,13 +6091,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6000,7 +6115,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6012,13 +6127,13 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6032,10 +6147,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6043,10 +6158,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6055,20 +6170,18 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6105,16 +6218,16 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>195</v>
@@ -6123,19 +6236,19 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6149,18 +6262,20 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6172,19 +6287,19 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6234,25 +6349,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6266,10 +6381,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6289,18 +6404,20 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6349,7 +6466,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6358,7 +6475,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6367,7 +6484,7 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6381,10 +6498,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6395,7 +6512,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6404,19 +6521,19 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6442,13 +6559,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6466,13 +6583,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6481,27 +6598,27 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6521,18 +6638,20 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6557,13 +6676,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6581,7 +6700,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6599,24 +6718,24 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6636,18 +6755,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6696,7 +6817,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6714,16 +6835,16 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6754,13 +6875,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6829,7 +6950,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6838,7 +6959,7 @@
         <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -6857,7 +6978,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6866,7 +6987,7 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>332</v>
@@ -6877,7 +6998,9 @@
       <c r="M45" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6932,7 +7055,7 @@
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -6941,27 +7064,27 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6984,13 +7107,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7017,13 +7140,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7041,7 +7164,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7056,27 +7179,27 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7099,13 +7222,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7156,7 +7279,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7174,24 +7297,24 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7202,7 +7325,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7214,13 +7337,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7271,13 +7394,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7289,24 +7412,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7326,16 +7449,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>163</v>
+        <v>362</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7386,7 +7509,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7398,30 +7521,30 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>165</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7429,11 +7552,11 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7444,13 +7567,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7489,54 +7612,54 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7547,7 +7670,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7559,13 +7682,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7616,42 +7739,42 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>172</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7662,7 +7785,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7671,20 +7794,18 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>178</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7733,16 +7854,16 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -7751,13 +7872,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>131</v>
+        <v>381</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7765,10 +7886,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7788,20 +7909,18 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7826,13 +7945,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7850,7 +7969,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7862,13 +7981,13 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7882,10 +8001,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7896,7 +8015,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7905,20 +8024,18 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7955,16 +8072,16 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>195</v>
@@ -7973,19 +8090,19 @@
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7999,12 +8116,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8022,19 +8141,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>198</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>199</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8084,25 +8203,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8116,10 +8235,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8130,7 +8249,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8139,18 +8258,20 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8199,25 +8320,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>205</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8226,15 +8347,15 @@
         <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8245,7 +8366,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8254,19 +8375,19 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>208</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8292,13 +8413,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8316,13 +8437,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>214</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8334,7 +8455,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>376</v>
+        <v>131</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8348,10 +8469,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8371,18 +8492,20 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>216</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8431,7 +8554,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>377</v>
+        <v>219</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8449,13 +8572,13 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8463,10 +8586,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8486,18 +8609,20 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8546,7 +8671,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8558,13 +8683,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8578,14 +8703,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8604,17 +8729,15 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>395</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
+        <v>396</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8663,7 +8786,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8675,13 +8798,13 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>165</v>
+        <v>399</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8690,19 +8813,19 @@
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8715,26 +8838,24 @@
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>274</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8782,7 +8903,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8794,13 +8915,13 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>131</v>
+        <v>406</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8814,10 +8935,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8825,7 +8946,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -8840,13 +8961,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8897,10 +9018,10 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>88</v>
@@ -8915,13 +9036,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -8929,10 +9050,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8955,13 +9076,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8988,13 +9109,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9012,7 +9133,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>390</v>
+        <v>191</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9024,34 +9145,34 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9070,15 +9191,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>295</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9103,13 +9226,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9127,7 +9250,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9139,19 +9262,19 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9159,14 +9282,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9179,22 +9302,26 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9242,7 +9369,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>404</v>
+        <v>301</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9254,19 +9381,19 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9274,10 +9401,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9285,7 +9412,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9300,13 +9427,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9357,10 +9484,10 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
@@ -9369,13 +9496,13 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>165</v>
+        <v>419</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9389,10 +9516,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9400,11 +9527,11 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9415,13 +9542,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9448,66 +9575,66 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9518,7 +9645,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9530,13 +9657,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>412</v>
+        <v>247</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9563,13 +9690,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9587,7 +9714,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9599,19 +9726,19 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -9619,10 +9746,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9633,7 +9760,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9642,20 +9769,18 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>161</v>
+        <v>435</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9704,16 +9829,16 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -9722,13 +9847,13 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -9736,10 +9861,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9759,20 +9884,18 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -9797,13 +9920,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -9821,7 +9944,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -9833,13 +9956,13 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -9853,10 +9976,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9867,7 +9990,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9876,20 +9999,18 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -9926,16 +10047,16 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>195</v>
@@ -9944,19 +10065,19 @@
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -9970,12 +10091,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
       </c>
@@ -9993,19 +10116,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>198</v>
+        <v>444</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>199</v>
+        <v>445</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>200</v>
+        <v>446</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10055,25 +10178,25 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10087,21 +10210,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10110,19 +10233,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>420</v>
+        <v>188</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>421</v>
+        <v>202</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>422</v>
+        <v>203</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>423</v>
+        <v>204</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10172,16 +10295,16 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>418</v>
+        <v>205</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10190,7 +10313,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10204,10 +10327,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10218,7 +10341,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10227,19 +10350,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>426</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>427</v>
+        <v>208</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
+        <v>209</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>429</v>
+        <v>210</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10265,13 +10388,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10289,13 +10412,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10307,7 +10430,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10316,6 +10439,474 @@
         <v>78</v>
       </c>
       <c r="AO74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicationDispense.xlsx
+++ b/StructureDefinition-profile-MedicationDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.198731-06:00</t>
+    <t>2026-02-17T14:42:26.8474946-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>The date (and maybe time) when the status of the dispense record changed.</t>
   </si>
   <si>
-    <t>Element `MedicationDispense.statusChanged` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+    <t>Element `MedicationDispense.statusChanged` has a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -488,7 +488,7 @@
     <t>The date (and maybe time) when the dispense activity started if whenPrepared or whenHandedOver is not populated.</t>
   </si>
   <si>
-    <t>Element `MedicationDispense.recorded` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+    <t>Element `MedicationDispense.recorded` has a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
   </si>
   <si>
     <t>MedicationDispense.extension:renderedDosageInstruction</t>
@@ -507,7 +507,7 @@
     <t>The full representation of the dose of the medication included in all dosage instructions.  To be used when multiple dosage instructions are included to represent complex dosing such as increasing or tapering doses.</t>
   </si>
   <si>
-    <t>Element `MedicationDispense.renderedDosageInstruction` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+    <t>Element `MedicationDispense.renderedDosageInstruction` has a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
   </si>
   <si>
     <t>MedicationDispense.extension:basedOn</t>
@@ -527,7 +527,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.basedOn` is will have a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
+Element `MedicationDispense.basedOn` has a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>
@@ -641,7 +641,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.partOf` is mapped to FHIR R4 element `MedicationDispense.partOf`.</t>
+Element `MedicationDispense.partOf` has is mapped to FHIR R4 element `MedicationDispense.partOf`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationDispense.partOf.reference</t>
@@ -938,10 +938,20 @@
     <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>MedicationDispense.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.performer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationDispense.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicationDispense.performer` has is mapped to FHIR R4 element `MedicationDispense.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -999,40 +1009,6 @@
   </si>
   <si>
     <t>.role</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.actor.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.actor.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationDispense.performer.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.performer.actor` is mapped to FHIR R4 element `MedicationDispense.performer.actor`.</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.actor.reference</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.actor.type</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.actor.identifier</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.actor.display</t>
   </si>
   <si>
     <t>MedicationDispense.location</t>
@@ -1233,7 +1209,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.receiver` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.receiver` is mapped to FHIR R4 element `MedicationDispense.receiver`.</t>
+Element `MedicationDispense.receiver` has is mapped to FHIR R4 element `MedicationDispense.receiver`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationDispense.receiver.reference</t>
@@ -1311,6 +1287,22 @@
     <t>MedicationDispense.substitution.extension</t>
   </si>
   <si>
+    <t>MedicationDispense.substitution.extension:substitution</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.substitution|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationDispense.substitution from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicationDispense.substitution` has is mapped to FHIR R4 element `MedicationDispense.substitution`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>MedicationDispense.substitution.modifierExtension</t>
   </si>
   <si>
@@ -1389,40 +1381,6 @@
   </si>
   <si>
     <t>CombinedMedicationDispense.substitutionMade.ResponsibleParty</t>
-  </si>
-  <si>
-    <t>MedicationDispense.substitution.responsibleParty.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.substitution.responsibleParty.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.substitution.responsibleParty.extension:responsibleParty</t>
-  </si>
-  <si>
-    <t>responsibleParty</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationDispense.substitution.responsibleParty from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.substitution.responsibleParty` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.substitution.responsibleParty` is mapped to FHIR R4 element `MedicationDispense.substitution.responsibleParty`.</t>
-  </si>
-  <si>
-    <t>MedicationDispense.substitution.responsibleParty.reference</t>
-  </si>
-  <si>
-    <t>MedicationDispense.substitution.responsibleParty.type</t>
-  </si>
-  <si>
-    <t>MedicationDispense.substitution.responsibleParty.identifier</t>
-  </si>
-  <si>
-    <t>MedicationDispense.substitution.responsibleParty.display</t>
   </si>
   <si>
     <t>MedicationDispense.detectedIssue</t>
@@ -1771,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1780,8 +1738,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.55078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -5571,7 +5529,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5593,14 +5551,12 @@
         <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5637,16 +5593,14 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>195</v>
@@ -5667,7 +5621,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5681,14 +5635,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D34" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5701,26 +5657,24 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5768,7 +5722,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5777,7 +5731,7 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>139</v>
@@ -5786,7 +5740,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5800,43 +5754,45 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5861,13 +5817,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5885,25 +5841,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5917,10 +5873,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5928,7 +5884,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -5943,16 +5899,18 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5976,13 +5934,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6000,10 +5958,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
@@ -6015,10 +5973,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6032,10 +5990,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6043,7 +6001,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -6058,13 +6016,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6115,10 +6073,10 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>88</v>
@@ -6127,13 +6085,13 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6147,10 +6105,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6158,11 +6116,11 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6173,13 +6131,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6218,37 +6176,37 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6262,23 +6220,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6290,16 +6246,16 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6349,7 +6305,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6361,30 +6317,30 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6404,20 +6360,18 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6442,13 +6396,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6466,7 +6420,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6475,7 +6429,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6484,24 +6438,24 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6521,20 +6475,18 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6559,13 +6511,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6583,7 +6535,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>214</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6601,24 +6553,24 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6638,20 +6590,18 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6700,7 +6650,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6718,7 +6668,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6727,15 +6677,15 @@
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6758,17 +6708,15 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6817,7 +6765,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6835,24 +6783,24 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6875,13 +6823,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6932,7 +6880,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6947,27 +6895,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6978,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6990,17 +6938,15 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7049,13 +6995,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7064,27 +7010,27 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7095,7 +7041,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7107,13 +7053,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>247</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7140,13 +7086,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7164,13 +7110,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7182,24 +7128,24 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7222,13 +7168,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>189</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7279,7 +7225,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>347</v>
+        <v>191</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7291,30 +7237,30 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>192</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7325,7 +7271,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7337,13 +7283,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>135</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7382,37 +7328,37 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7421,17 +7367,19 @@
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7449,18 +7397,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7509,42 +7459,42 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>195</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7564,18 +7514,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>360</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7624,7 +7576,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>366</v>
+        <v>205</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7633,33 +7585,33 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>370</v>
+        <v>131</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7679,18 +7631,20 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>208</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7715,13 +7669,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7739,7 +7693,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>371</v>
+        <v>214</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7757,24 +7711,24 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7785,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7794,18 +7748,20 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>216</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7854,13 +7810,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>377</v>
+        <v>219</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -7872,13 +7828,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>381</v>
+        <v>220</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7886,10 +7842,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7909,18 +7865,20 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7969,7 +7927,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7981,13 +7939,13 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8001,10 +7959,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8027,13 +7985,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>134</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8072,19 +8030,19 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8096,13 +8054,13 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8111,19 +8069,17 @@
         <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8132,7 +8088,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8144,16 +8100,16 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>161</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8203,7 +8159,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>195</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8215,13 +8171,13 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8235,10 +8191,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8258,20 +8214,18 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>202</v>
+        <v>400</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8320,7 +8274,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>205</v>
+        <v>399</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8329,7 +8283,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8338,13 +8292,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>131</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8352,10 +8306,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8375,20 +8329,18 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8413,13 +8365,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8437,7 +8389,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8449,13 +8401,13 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8469,10 +8421,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8483,7 +8435,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8492,20 +8444,18 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8542,37 +8492,35 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8586,12 +8534,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8609,19 +8559,19 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>188</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>223</v>
+        <v>401</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8671,25 +8621,25 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8703,14 +8653,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8723,22 +8673,26 @@
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8786,7 +8740,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8798,13 +8752,13 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8813,15 +8767,15 @@
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8829,10 +8783,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8844,17 +8798,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8903,13 +8855,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -8921,7 +8873,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8935,10 +8887,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8961,13 +8913,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8994,13 +8946,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9018,7 +8970,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9036,24 +8988,24 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9064,7 +9016,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9076,13 +9028,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>189</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9109,13 +9061,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9133,31 +9085,31 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>191</v>
+        <v>424</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>192</v>
+        <v>429</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9165,14 +9117,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9191,17 +9143,15 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>295</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9250,7 +9200,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>195</v>
+        <v>431</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9262,19 +9212,19 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>192</v>
+        <v>435</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9282,14 +9232,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>298</v>
+        <v>438</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9302,26 +9252,24 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>299</v>
+        <v>440</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>300</v>
+        <v>441</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9369,7 +9317,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9381,13 +9329,13 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>443</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9401,10 +9349,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9412,10 +9360,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9427,15 +9375,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9484,13 +9434,13 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
@@ -9502,7 +9452,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9511,1402 +9461,6 @@
         <v>78</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO78" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicationDispense.xlsx
+++ b/StructureDefinition-profile-MedicationDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8474946-06:00</t>
+    <t>2026-02-20T11:59:20.8708405-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationDispense|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationDispense</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>statusChanged</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.statusChanged|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.statusChanged}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.recorded|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.recorded}
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>renderedDosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.renderedDosageInstruction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.renderedDosageInstruction}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.performer|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.performer}
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
   </si>
   <si>
     <t>.code</t>
@@ -1293,7 +1293,7 @@
     <t>substitution</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.substitution|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.substitution}
 </t>
   </si>
   <si>
@@ -1334,7 +1334,7 @@
     <t>A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
   </si>
   <si>
     <t>CombinedMedicationDispense.substitutionMade.code</t>
@@ -1355,7 +1355,7 @@
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
   </si>
   <si>
     <t>.reasonCode</t>
@@ -1748,7 +1748,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.9921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1763,7 +1763,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="119.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-MedicationDispense.xlsx
+++ b/StructureDefinition-profile-MedicationDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="392">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8708405-06:00</t>
+    <t>2026-02-21T13:36:54.2791999-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationDispense</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationDispense|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>statusChanged</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.statusChanged}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.statusChanged|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.recorded}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.recorded|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>renderedDosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.renderedDosageInstruction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.renderedDosageInstruction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -508,26 +508,6 @@
   </si>
   <si>
     <t>Element `MedicationDispense.renderedDosageInstruction` has a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
-  </si>
-  <si>
-    <t>MedicationDispense.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationDispense.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.basedOn` has a context of MedicationDispense based on following the parent source element upwards and mapping to `MedicationDispense`.</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>
@@ -600,7 +580,215 @@
     <t>.outboundRelationship[typeCode=COMP]/target[classCode=PROC,moodCode=EVN]</t>
   </si>
   <si>
-    <t>MedicationDispense.partOf.id</t>
+    <t>MedicationDispense.status</t>
+  </si>
+  <si>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the set of dispense events.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A coded concept specifying the state of the dispense event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
+  </si>
+  <si>
+    <t>MedicationDispense.statusReason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(DetectedIssue|4.0.1)</t>
+  </si>
+  <si>
+    <t>Why a dispense was not performed</t>
+  </si>
+  <si>
+    <t>Indicates the reason why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code describing why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of medication dispense</t>
+  </si>
+  <si>
+    <t>Indicates the type of medication dispense (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
+  </si>
+  <si>
+    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
+  </si>
+  <si>
+    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication|4.0.1)</t>
+  </si>
+  <si>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying which substance or product can be dispensed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRD].role</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>CombinedMedicationRequest.component1.AdministrationRequest.consumable</t>
+  </si>
+  <si>
+    <t>RXD-2-Dispense/Give Code</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who the dispense is for</t>
+  </si>
+  <si>
+    <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration-&gt;subject-&gt;Patient.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationDispense.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Encounter / Episode associated with event</t>
+  </si>
+  <si>
+    <t>The encounter or episode of care that establishes the context for this event.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Information that supports the dispensing of the medication</t>
+  </si>
+  <si>
+    <t>Additional information that supports the medication being dispensed.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed event</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the event.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -619,339 +807,16 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationDispense.partOf.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>MedicationDispense.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf.extension:partOf</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationDispense.partOf from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MedicationAdministration in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.partOf` has is mapped to FHIR R4 element `MedicationDispense.partOf`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>MedicationDispense.status</t>
-  </si>
-  <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the set of dispense events.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the dispense event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
-  </si>
-  <si>
-    <t>MedicationDispense.statusReason[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(DetectedIssue|4.0.1)</t>
-  </si>
-  <si>
-    <t>Why a dispense was not performed</t>
-  </si>
-  <si>
-    <t>Indicates the reason why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code describing why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of medication dispense</t>
-  </si>
-  <si>
-    <t>Indicates the type of medication dispense (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
-  </si>
-  <si>
-    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
-  </si>
-  <si>
-    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category|4.0.1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Medication|4.0.1)</t>
-  </si>
-  <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying which substance or product can be dispensed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRD].role</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>CombinedMedicationRequest.component1.AdministrationRequest.consumable</t>
-  </si>
-  <si>
-    <t>RXD-2-Dispense/Give Code</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who the dispense is for</t>
-  </si>
-  <si>
-    <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
-  </si>
-  <si>
-    <t>SubstanceAdministration-&gt;subject-&gt;Patient.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationDispense.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Encounter / Episode associated with event</t>
-  </si>
-  <si>
-    <t>The encounter or episode of care that establishes the context for this event.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Information that supports the dispensing of the medication</t>
-  </si>
-  <si>
-    <t>Additional information that supports the medication being dispensed.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed event</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the event.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.performer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationDispense.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationDispense.performer` has is mapped to FHIR R4 element `MedicationDispense.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1064,7 +929,7 @@
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType|3.0.0</t>
   </si>
   <si>
     <t>.code</t>
@@ -1190,40 +1055,6 @@
     <t>CombinedMedicationDispense.SupplyEvent.receiver</t>
   </si>
   <si>
-    <t>MedicationDispense.receiver.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.receiver.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.receiver.extension:receiver</t>
-  </si>
-  <si>
-    <t>receiver</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationDispense.receiver from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationDispense.receiver` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationDispense.receiver` has is mapped to FHIR R4 element `MedicationDispense.receiver`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicationDispense.receiver.reference</t>
-  </si>
-  <si>
-    <t>MedicationDispense.receiver.type</t>
-  </si>
-  <si>
-    <t>MedicationDispense.receiver.identifier</t>
-  </si>
-  <si>
-    <t>MedicationDispense.receiver.display</t>
-  </si>
-  <si>
     <t>MedicationDispense.note</t>
   </si>
   <si>
@@ -1287,22 +1118,6 @@
     <t>MedicationDispense.substitution.extension</t>
   </si>
   <si>
-    <t>MedicationDispense.substitution.extension:substitution</t>
-  </si>
-  <si>
-    <t>substitution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationDispense.substitution}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationDispense.substitution from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationDispense.substitution` has is mapped to FHIR R4 element `MedicationDispense.substitution`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>MedicationDispense.substitution.modifierExtension</t>
   </si>
   <si>
@@ -1334,7 +1149,7 @@
     <t>A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode|3.0.0</t>
   </si>
   <si>
     <t>CombinedMedicationDispense.substitutionMade.code</t>
@@ -1355,7 +1170,7 @@
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason|3.0.0</t>
   </si>
   <si>
     <t>.reasonCode</t>
@@ -1729,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1748,7 +1563,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.9921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1763,10 +1578,10 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="119.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.33203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3195,13 +3010,11 @@
         <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3214,24 +3027,26 @@
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3279,7 +3094,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3297,7 +3112,7 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3311,14 +3126,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3331,26 +3146,24 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3398,7 +3211,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3410,19 +3223,19 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3430,10 +3243,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3456,17 +3269,15 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3515,7 +3326,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3530,16 +3341,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3558,30 +3369,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3606,13 +3419,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3633,10 +3446,10 @@
         <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
@@ -3645,16 +3458,16 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3662,10 +3475,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3688,13 +3501,13 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3721,13 +3534,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3745,7 +3558,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3757,13 +3570,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3777,10 +3590,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3791,7 +3604,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3803,15 +3616,17 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3836,49 +3651,49 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3892,20 +3707,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3917,19 +3730,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3955,13 +3768,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3979,42 +3792,42 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4037,16 +3850,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4096,7 +3909,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4105,33 +3918,33 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4151,20 +3964,18 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4189,13 +4000,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4213,7 +4024,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4228,10 +4039,10 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4245,10 +4056,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4259,7 +4070,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4268,20 +4079,18 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4330,13 +4139,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4348,10 +4157,10 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4362,10 +4171,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4376,7 +4185,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4385,20 +4194,18 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4447,13 +4254,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4462,10 +4269,10 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4479,10 +4286,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4490,7 +4297,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4499,23 +4306,21 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4540,13 +4345,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4564,10 +4369,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>88</v>
@@ -4576,19 +4381,19 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4596,21 +4401,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4622,15 +4427,17 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4655,13 +4462,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4679,25 +4486,25 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4711,44 +4518,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4772,13 +4581,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4796,25 +4605,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4828,10 +4637,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4839,7 +4648,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -4851,21 +4660,21 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4889,13 +4698,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4913,10 +4722,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -4928,27 +4737,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4956,7 +4765,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -4968,20 +4777,18 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5030,10 +4837,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5045,27 +4852,27 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5088,13 +4895,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5145,7 +4952,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5160,7 +4967,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>280</v>
@@ -5211,7 +5018,9 @@
       <c r="M30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5275,27 +5084,27 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5306,7 +5115,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5318,13 +5127,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5351,13 +5160,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5375,13 +5184,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5390,27 +5199,27 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5433,13 +5242,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5490,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5502,30 +5311,30 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5536,7 +5345,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5548,13 +5357,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5593,35 +5402,37 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5630,19 +5441,17 @@
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5651,7 +5460,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5660,20 +5469,18 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5722,78 +5529,74 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5841,42 +5644,42 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5899,18 +5702,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5934,13 +5735,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5958,7 +5759,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5976,24 +5777,24 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6001,10 +5802,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6016,13 +5817,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6073,13 +5874,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6088,16 +5889,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6105,10 +5906,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6119,7 +5920,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6131,13 +5932,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6188,13 +5989,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6203,10 +6004,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6215,15 +6016,15 @@
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6246,16 +6047,16 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6305,7 +6106,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6320,27 +6121,27 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6363,13 +6164,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6396,13 +6197,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6420,7 +6221,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6438,24 +6239,24 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6478,13 +6279,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>249</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6535,7 +6336,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6547,41 +6348,41 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6593,15 +6394,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6650,25 +6453,25 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6677,47 +6480,51 @@
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>260</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6765,42 +6572,42 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6808,7 +6615,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
@@ -6823,13 +6630,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6880,10 +6687,10 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>88</v>
@@ -6895,27 +6702,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6938,13 +6745,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6971,13 +6778,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6995,7 +6802,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7013,24 +6820,24 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7053,13 +6860,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7086,13 +6893,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7110,7 +6917,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7128,13 +6935,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7142,10 +6949,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7156,7 +6963,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7168,13 +6975,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>189</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7225,31 +7032,31 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>192</v>
+        <v>377</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7257,14 +7064,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7283,15 +7090,17 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>134</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7328,19 +7137,19 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>195</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7352,13 +7161,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7372,14 +7181,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7388,7 +7195,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7400,16 +7207,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7459,7 +7266,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7471,13 +7278,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7486,1981 +7293,6 @@
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO66" t="s" s="2">
         <v>78</v>
       </c>
     </row>
